--- a/transformed_data/modified_rank_prior_18.xlsx
+++ b/transformed_data/modified_rank_prior_18.xlsx
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C11" t="n">
